--- a/data/hotels_by_city/Houston/Houston_shard_243.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_243.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d9724045-Reviews-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-By-Marriott-Houston-Pasadena.h12521922.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,294 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r567005561-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>9724045</t>
+  </si>
+  <si>
+    <t>567005561</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our family of four stayed three nights over spring break.  The location is ideal if you are going to explore both Galveston and Downtown.The room was smaller than other Fairfield Inns we have stayed at but was a well designed space and clean.  It had a great free hot breakfast with lots of options.Pool is outside, no hot tub.  Decent treadmills in the fitness center. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r556483085-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>556483085</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>New in the last 2 yrs.</t>
+  </si>
+  <si>
+    <t>Room and hotel clean.Shower spray thin thru rain shower head.Towels and sheets good.Issue, breakfast, not the quality of the usual Marriots.Coffee and hot water cold.The food attendant puts out 2 yogurts at a time.A small ant of scrambled Eggs in chafing dishes, so people have to wait for her to heat up food? Really??Only Bold coffee, how about plain reg coffee.Just not the usual standard of a Fairfield and won't stay here Again.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r530019262-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>530019262</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Good Overnight Stay</t>
+  </si>
+  <si>
+    <t>I stay in a fairly large number of hotel and motel properties, and I am often disappointed in some area or another.  My recent stay at the Fairfield Inn Pasadena was a notable exception.  It is located along the Sam Houston Tollway, and there is a lot of traffic on the frontage road.  I had a room on the back side, overlooking a parking lot and a pleasant residential neighborhood.  The hotel was brightly decorated and clean, and I encountered no noise, either from the outside or other rooms.  The HVAC system was quiet.  The bed was a little harder than I would have selected, but was fine.  Breakfast the next morning was up to par.  I had an excellent overnight stay, and would like to try this inn out again if I need to stay in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stay in a fairly large number of hotel and motel properties, and I am often disappointed in some area or another.  My recent stay at the Fairfield Inn Pasadena was a notable exception.  It is located along the Sam Houston Tollway, and there is a lot of traffic on the frontage road.  I had a room on the back side, overlooking a parking lot and a pleasant residential neighborhood.  The hotel was brightly decorated and clean, and I encountered no noise, either from the outside or other rooms.  The HVAC system was quiet.  The bed was a little harder than I would have selected, but was fine.  Breakfast the next morning was up to par.  I had an excellent overnight stay, and would like to try this inn out again if I need to stay in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r474077981-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>474077981</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff and area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is an great area, IHOP and Hooters right in front, walking distance.  There is other restaurant and shopping areas about 2 miles or less. The room is very nice bed and bathroom good size. The staff is great they remembered me which is nice last name and all good feeling. The gym is basic but good enough to go get a work out in. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r471247751-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>471247751</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Two night stay on business</t>
+  </si>
+  <si>
+    <t>I know what to expect when I stay at a Fairfield Inn and Suites. Clean, well appointed, nice sized rooms with comfortable beds, friendly staff and standard amenities (microwave, mini fridge, work station, flat screen television, free breakfast). This location does not disappoint in expectations. There is an Ihop (open 24 hours) and a Hooters restaurant in the same parking lot as hotel, so you can walk to grab lunch and dinner. Plenty of shopping and eating options within a short drive. Gym has two treadmills, elliptical machine and nice selection of free weights. Only two issues: Shower curtain does not come all the way down to the tub, so you have a pool of water in the bathroom after your shower &amp; my room did not have an alarm clock.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>I know what to expect when I stay at a Fairfield Inn and Suites. Clean, well appointed, nice sized rooms with comfortable beds, friendly staff and standard amenities (microwave, mini fridge, work station, flat screen television, free breakfast). This location does not disappoint in expectations. There is an Ihop (open 24 hours) and a Hooters restaurant in the same parking lot as hotel, so you can walk to grab lunch and dinner. Plenty of shopping and eating options within a short drive. Gym has two treadmills, elliptical machine and nice selection of free weights. Only two issues: Shower curtain does not come all the way down to the tub, so you have a pool of water in the bathroom after your shower &amp; my room did not have an alarm clock.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r464258141-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>464258141</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>Decided to stay here while we were having work done on our house.  We were not disappointed!  The hotel is pretty new, a little over a year old, and it is spotless.  The front desk staff were very friendly.  Requested a top floor with 2 queen beds and the room was very clean, bed was comfortable.  Bathroom was very clean.  Did not hear any noise and slept great.  Breakfast bar was so-so but no big breakfast eaters in our family.  They did have gluten free bagels which is nice because we have someone in our family who is celiac.  I have never seen that before at a hotel.  Would recommend this hotel for anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Decided to stay here while we were having work done on our house.  We were not disappointed!  The hotel is pretty new, a little over a year old, and it is spotless.  The front desk staff were very friendly.  Requested a top floor with 2 queen beds and the room was very clean, bed was comfortable.  Bathroom was very clean.  Did not hear any noise and slept great.  Breakfast bar was so-so but no big breakfast eaters in our family.  They did have gluten free bagels which is nice because we have someone in our family who is celiac.  I have never seen that before at a hotel.  Would recommend this hotel for anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r433057842-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>433057842</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Love the rooms</t>
+  </si>
+  <si>
+    <t>I checked into my room after 11:30pm at night after driving all night I was exhausted. I came into the hotel to find alot of sports guys hanging out in lobby...and all I could think was oh great. Ema checked me and was so nice...she quietly showed me which room I was assigned to ( I am a young female) and even recommend where I park my car since I was concerned...it's a govt car. She than made sure I made it to my room safely ( I was on first floor around corner from check in). I felt safe and secure. The room was amazingly quiet and nice. The bed was perfect and the bathroom was spacious and beautiful. Breakfast was sorta disappointing...wasn't much to choose from. I have a food allergy to eggs and the tongs for sausage had been used to get eggs so I couldn't get any meat for my breakfast. It's just basic options so not really complaining. The fresh fruit was truly fresh and not all brown and old so I happily to that to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I checked into my room after 11:30pm at night after driving all night I was exhausted. I came into the hotel to find alot of sports guys hanging out in lobby...and all I could think was oh great. Ema checked me and was so nice...she quietly showed me which room I was assigned to ( I am a young female) and even recommend where I park my car since I was concerned...it's a govt car. She than made sure I made it to my room safely ( I was on first floor around corner from check in). I felt safe and secure. The room was amazingly quiet and nice. The bed was perfect and the bathroom was spacious and beautiful. Breakfast was sorta disappointing...wasn't much to choose from. I have a food allergy to eggs and the tongs for sausage had been used to get eggs so I couldn't get any meat for my breakfast. It's just basic options so not really complaining. The fresh fruit was truly fresh and not all brown and old so I happily to that to go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r417651765-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>417651765</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>New &amp; Quiet</t>
+  </si>
+  <si>
+    <t>Stayed at this new hotel one night as we were in the process of packing up our house and didn't have beds to sleep on that night before we moved into temporary housing until our new house is finished.  The hotel staff was friendly but couldn't get us a king room as they were said to be sold out but the parking lot was empty.  Once checked in we were surprised with the hotel and it's comfort and quality of the furniture and beds.  Breakfast had a small self serve menu of items but it served its purpose.  Nice one night stay when needed.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r384024458-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>384024458</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Very nice.</t>
+  </si>
+  <si>
+    <t>The clerk was very helpful in finding a great restaurant.  The hotel was very nice, new, and clean.  I would recommend this hotel, partly because most of Houston smells like they are out gassing petroleum refinery gasses.  This hotel was far enough from a refinery that it did not smell like so much of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>The clerk was very helpful in finding a great restaurant.  The hotel was very nice, new, and clean.  I would recommend this hotel, partly because most of Houston smells like they are out gassing petroleum refinery gasses.  This hotel was far enough from a refinery that it did not smell like so much of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r379197473-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>379197473</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Everything is great except the breakfast</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and modern.  Each room has a fridge and microwave.  The internet is fast and reliable.   The cleaning staff is thorough and didn't have a problem with a multi day stay.   There is an IHOP and Hooters restaurant sharing the same parking lot.   The rooms in the back offers a very quite respite from a long day of traveling.   So why the 3 star review?   Their breakfast offering/service is sub-par even by Fairifeld Inn standards.  The breakfast offering was very inconsistent over a 6 day stay.  Had to prod the staff and ask "Where is XXX?" to get some of the breakfast items taken out of the pantry. I am very familiar with the Marriott brand and stay with them exclusively.  I know it is a free offering but having a minimum level of service/expectation is why some us stay brand loyal.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is very clean and modern.  Each room has a fridge and microwave.  The internet is fast and reliable.   The cleaning staff is thorough and didn't have a problem with a multi day stay.   There is an IHOP and Hooters restaurant sharing the same parking lot.   The rooms in the back offers a very quite respite from a long day of traveling.   So why the 3 star review?   Their breakfast offering/service is sub-par even by Fairifeld Inn standards.  The breakfast offering was very inconsistent over a 6 day stay.  Had to prod the staff and ask "Where is XXX?" to get some of the breakfast items taken out of the pantry. I am very familiar with the Marriott brand and stay with them exclusively.  I know it is a free offering but having a minimum level of service/expectation is why some us stay brand loyal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r376734412-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>376734412</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Clean rooms and friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here for three days and had a room that faced the highway.  The road noise was negligible in the room.  This is a newer hotel so everything worked well with the exception that it took a long time for the water to get warm in the shower.  I was on the fourth floor at the end of the floor and it took about 5 minutes for the water to warm up on two of the mornings.  Once it got there there was plenty of hot water so no big deal.The staff is very friendly and always had a smile on their faces.  I will stay here again when I return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded May 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for three days and had a room that faced the highway.  The road noise was negligible in the room.  This is a newer hotel so everything worked well with the exception that it took a long time for the water to get warm in the shower.  I was on the fourth floor at the end of the floor and it took about 5 minutes for the water to warm up on two of the mornings.  Once it got there there was plenty of hot water so no big deal.The staff is very friendly and always had a smile on their faces.  I will stay here again when I return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r363063902-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>363063902</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Quiet place for a rest, close to Bayport Cruise Terminal</t>
+  </si>
+  <si>
+    <t>Overall good place for a quiet night. The staff were generally friendly and hotel was clean and modern. About 20-25 minutes from Bayport Cruise Terminal. Things to consider: The pool is very small as was the gym. Breakfast was very minimal and no milk alternatives. Hotel try's to seem environmentally friendly but provides styrofoam plates for breakfast. Address is 3636 E Sam Houston Parkway S, Pasadena TX. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Overall good place for a quiet night. The staff were generally friendly and hotel was clean and modern. About 20-25 minutes from Bayport Cruise Terminal. Things to consider: The pool is very small as was the gym. Breakfast was very minimal and no milk alternatives. Hotel try's to seem environmentally friendly but provides styrofoam plates for breakfast. Address is 3636 E Sam Houston Parkway S, Pasadena TX. More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +829,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +861,821 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>137</v>
+      </c>
+      <c r="X13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_243.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_243.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r576519016-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>9724045</t>
+  </si>
+  <si>
+    <t>576519016</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Passing through the Houston area</t>
+  </si>
+  <si>
+    <t>This hotel was close to many things in the Pasadena and surrounding areas. The hotel was very clean which is at the top of my priority list. The front desk staff were very friendly!! The only downside was the water in the shower would not get hot and the water pressure was awful. That being said we only stayed a couple of nights so I just dealt with it. If they could fix the water issue I would definitely stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Pam R, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was close to many things in the Pasadena and surrounding areas. The hotel was very clean which is at the top of my priority list. The front desk staff were very friendly!! The only downside was the water in the shower would not get hot and the water pressure was awful. That being said we only stayed a couple of nights so I just dealt with it. If they could fix the water issue I would definitely stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r576129426-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>576129426</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>OK, but not as good as other hotels in the area at the same price point......</t>
+  </si>
+  <si>
+    <t>I am a Lifetime Marriott Platinum member and Hilton Diamond member who travels to this area frequently.  I normally stay at the Hampton Inn but on this trip they were full, so I decided to try the Fairfield Inn.  The location of this hotel is great given the fact that it is right on the Beltway 8. But be aware that there is considerable construction taking place on the feeder roads in the area and traffic can be bad during the morning afternoon commutes. I arrived just after midnight and check in was fairly easy.  I was recognized as at Platinum member and offered a bottle of water.  I headed to my room on the single elevator, which isn’t a problem at 12:30 AM, but it is from 6:00 AM to 8:00 AM when everyone in the hotel is trying to use it.  This hotel is fairly new, so the rooms are clean and of ample size. Additionally, all rooms have a refrigerator and microwave which is nice if you’re staying a few days like I was.  My room had 2 full size beds but I would imagine that there are rooms with king size beds as well.  The bed was comfortable.  The bathroom and amenities were typical of of hotel at this price point.  One negative was the water pressure in the shower......it was very weak or the head needed to be cleaned.  The TV was fine and had...I am a Lifetime Marriott Platinum member and Hilton Diamond member who travels to this area frequently.  I normally stay at the Hampton Inn but on this trip they were full, so I decided to try the Fairfield Inn.  The location of this hotel is great given the fact that it is right on the Beltway 8. But be aware that there is considerable construction taking place on the feeder roads in the area and traffic can be bad during the morning afternoon commutes. I arrived just after midnight and check in was fairly easy.  I was recognized as at Platinum member and offered a bottle of water.  I headed to my room on the single elevator, which isn’t a problem at 12:30 AM, but it is from 6:00 AM to 8:00 AM when everyone in the hotel is trying to use it.  This hotel is fairly new, so the rooms are clean and of ample size. Additionally, all rooms have a refrigerator and microwave which is nice if you’re staying a few days like I was.  My room had 2 full size beds but I would imagine that there are rooms with king size beds as well.  The bed was comfortable.  The bathroom and amenities were typical of of hotel at this price point.  One negative was the water pressure in the shower......it was very weak or the head needed to be cleaned.  The TV was fine and had a good picture.  Another thing I noticed in this room was that there is only one electrical outlet at the desk....most hotels have 4-5 which makes it easier to recharge all your devices and equipment.  There were, however, 2 outlets on the lamp between the beds but only one of them worked.  In the morning I went down stairs to check out the breakfast. I have to tell you....it was disappointing, especially given the fact that I was paying $150 a night.  At that price point, I would expect real scrambled eggs, not powdered. Bacon that’s not so thin you can see through it.  Oatmeal that has a smooth consistency, not like wall paper paste, etc, etc.  The breakfast at the Hampton Inn down the road “blows this breakfast away”......I would give the Fairfield breakfast an A...for avoid.  Oh!  And another thing.....no newspapers.  What’s up with that?  After conducting my business for the day, I returned, only to find out that my bottled water was not replenished......the Hampton Inn gives you 2 waters day.  I could go on but I think you get the idea.  It’s ironic, because right next to the (only) elevator in the hotel is a photo of J. Willard Marriott with a caption that reads “it’s the little things that make the big things possible”........great advice.  In closing I would say that this hotel should start taking care of the “little things” such as real eggs, real bacon, replenished water for Platinum guests, newspapers, etc. etc. or take down the sign.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I am a Lifetime Marriott Platinum member and Hilton Diamond member who travels to this area frequently.  I normally stay at the Hampton Inn but on this trip they were full, so I decided to try the Fairfield Inn.  The location of this hotel is great given the fact that it is right on the Beltway 8. But be aware that there is considerable construction taking place on the feeder roads in the area and traffic can be bad during the morning afternoon commutes. I arrived just after midnight and check in was fairly easy.  I was recognized as at Platinum member and offered a bottle of water.  I headed to my room on the single elevator, which isn’t a problem at 12:30 AM, but it is from 6:00 AM to 8:00 AM when everyone in the hotel is trying to use it.  This hotel is fairly new, so the rooms are clean and of ample size. Additionally, all rooms have a refrigerator and microwave which is nice if you’re staying a few days like I was.  My room had 2 full size beds but I would imagine that there are rooms with king size beds as well.  The bed was comfortable.  The bathroom and amenities were typical of of hotel at this price point.  One negative was the water pressure in the shower......it was very weak or the head needed to be cleaned.  The TV was fine and had...I am a Lifetime Marriott Platinum member and Hilton Diamond member who travels to this area frequently.  I normally stay at the Hampton Inn but on this trip they were full, so I decided to try the Fairfield Inn.  The location of this hotel is great given the fact that it is right on the Beltway 8. But be aware that there is considerable construction taking place on the feeder roads in the area and traffic can be bad during the morning afternoon commutes. I arrived just after midnight and check in was fairly easy.  I was recognized as at Platinum member and offered a bottle of water.  I headed to my room on the single elevator, which isn’t a problem at 12:30 AM, but it is from 6:00 AM to 8:00 AM when everyone in the hotel is trying to use it.  This hotel is fairly new, so the rooms are clean and of ample size. Additionally, all rooms have a refrigerator and microwave which is nice if you’re staying a few days like I was.  My room had 2 full size beds but I would imagine that there are rooms with king size beds as well.  The bed was comfortable.  The bathroom and amenities were typical of of hotel at this price point.  One negative was the water pressure in the shower......it was very weak or the head needed to be cleaned.  The TV was fine and had a good picture.  Another thing I noticed in this room was that there is only one electrical outlet at the desk....most hotels have 4-5 which makes it easier to recharge all your devices and equipment.  There were, however, 2 outlets on the lamp between the beds but only one of them worked.  In the morning I went down stairs to check out the breakfast. I have to tell you....it was disappointing, especially given the fact that I was paying $150 a night.  At that price point, I would expect real scrambled eggs, not powdered. Bacon that’s not so thin you can see through it.  Oatmeal that has a smooth consistency, not like wall paper paste, etc, etc.  The breakfast at the Hampton Inn down the road “blows this breakfast away”......I would give the Fairfield breakfast an A...for avoid.  Oh!  And another thing.....no newspapers.  What’s up with that?  After conducting my business for the day, I returned, only to find out that my bottled water was not replenished......the Hampton Inn gives you 2 waters day.  I could go on but I think you get the idea.  It’s ironic, because right next to the (only) elevator in the hotel is a photo of J. Willard Marriott with a caption that reads “it’s the little things that make the big things possible”........great advice.  In closing I would say that this hotel should start taking care of the “little things” such as real eggs, real bacon, replenished water for Platinum guests, newspapers, etc. etc. or take down the sign.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r567005561-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>9724045</t>
-  </si>
-  <si>
     <t>567005561</t>
   </si>
   <si>
@@ -177,9 +228,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r556483085-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -198,9 +246,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r530019262-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -225,6 +270,48 @@
     <t>I stay in a fairly large number of hotel and motel properties, and I am often disappointed in some area or another.  My recent stay at the Fairfield Inn Pasadena was a notable exception.  It is located along the Sam Houston Tollway, and there is a lot of traffic on the frontage road.  I had a room on the back side, overlooking a parking lot and a pleasant residential neighborhood.  The hotel was brightly decorated and clean, and I encountered no noise, either from the outside or other rooms.  The HVAC system was quiet.  The bed was a little harder than I would have selected, but was fine.  Breakfast the next morning was up to par.  I had an excellent overnight stay, and would like to try this inn out again if I need to stay in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r498916085-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>498916085</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Terrible room, average staff</t>
+  </si>
+  <si>
+    <t>Was very disappointed with my recent stay at this hotel. Upon arrival at approx. 11:30 PM I had to wait a few minutes for hotel staff to appear at the desk. No big issue with that. What I did have an issue with was that I completed mobile check-in and the clerk asked me my name and then handed me my keys. She never once asked for my ID to verify identity. Upon entering the room we noticed a few issues, hand prints on the wall and missing piece of carpet/visible carpet tacks. But it was late and we were tired from driving. Upon waking up the next morning we noticed that bathroom floor tile had sections of grout missing and they cracked/popped every time you took a step. There was also one of the wall tiles in the shower with a section of the glazing missing. Upon our return that evening none of the room keys worked again small inconvenience but they add up. Sunday morning when we woke up and opened the curtains we discovered what could only be described as bb/bullet hole in the outer pane of the window with glass pieces in the bottom of window in-between the two panes of glass. Some other small things we noticed was the do not disturb sign was missing as well as there was a random block of screwed in next to the door frame. I would have voiced...Was very disappointed with my recent stay at this hotel. Upon arrival at approx. 11:30 PM I had to wait a few minutes for hotel staff to appear at the desk. No big issue with that. What I did have an issue with was that I completed mobile check-in and the clerk asked me my name and then handed me my keys. She never once asked for my ID to verify identity. Upon entering the room we noticed a few issues, hand prints on the wall and missing piece of carpet/visible carpet tacks. But it was late and we were tired from driving. Upon waking up the next morning we noticed that bathroom floor tile had sections of grout missing and they cracked/popped every time you took a step. There was also one of the wall tiles in the shower with a section of the glazing missing. Upon our return that evening none of the room keys worked again small inconvenience but they add up. Sunday morning when we woke up and opened the curtains we discovered what could only be described as bb/bullet hole in the outer pane of the window with glass pieces in the bottom of window in-between the two panes of glass. Some other small things we noticed was the do not disturb sign was missing as well as there was a random block of screwed in next to the door frame. I would have voiced my concerns about the room and questioned why it was still in service with hotel staff upon my departure on Sunday but upon leaving there was no one at the desk yet again.  Would not recommend this hotel to anyone.  I am a frequent traveler and stay only at Marriott properties and expect way better from them especially from one this new.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Was very disappointed with my recent stay at this hotel. Upon arrival at approx. 11:30 PM I had to wait a few minutes for hotel staff to appear at the desk. No big issue with that. What I did have an issue with was that I completed mobile check-in and the clerk asked me my name and then handed me my keys. She never once asked for my ID to verify identity. Upon entering the room we noticed a few issues, hand prints on the wall and missing piece of carpet/visible carpet tacks. But it was late and we were tired from driving. Upon waking up the next morning we noticed that bathroom floor tile had sections of grout missing and they cracked/popped every time you took a step. There was also one of the wall tiles in the shower with a section of the glazing missing. Upon our return that evening none of the room keys worked again small inconvenience but they add up. Sunday morning when we woke up and opened the curtains we discovered what could only be described as bb/bullet hole in the outer pane of the window with glass pieces in the bottom of window in-between the two panes of glass. Some other small things we noticed was the do not disturb sign was missing as well as there was a random block of screwed in next to the door frame. I would have voiced...Was very disappointed with my recent stay at this hotel. Upon arrival at approx. 11:30 PM I had to wait a few minutes for hotel staff to appear at the desk. No big issue with that. What I did have an issue with was that I completed mobile check-in and the clerk asked me my name and then handed me my keys. She never once asked for my ID to verify identity. Upon entering the room we noticed a few issues, hand prints on the wall and missing piece of carpet/visible carpet tacks. But it was late and we were tired from driving. Upon waking up the next morning we noticed that bathroom floor tile had sections of grout missing and they cracked/popped every time you took a step. There was also one of the wall tiles in the shower with a section of the glazing missing. Upon our return that evening none of the room keys worked again small inconvenience but they add up. Sunday morning when we woke up and opened the curtains we discovered what could only be described as bb/bullet hole in the outer pane of the window with glass pieces in the bottom of window in-between the two panes of glass. Some other small things we noticed was the do not disturb sign was missing as well as there was a random block of screwed in next to the door frame. I would have voiced my concerns about the room and questioned why it was still in service with hotel staff upon my departure on Sunday but upon leaving there was no one at the desk yet again.  Would not recommend this hotel to anyone.  I am a frequent traveler and stay only at Marriott properties and expect way better from them especially from one this new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r480017196-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>480017196</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommend </t>
+  </si>
+  <si>
+    <t>This is a nice and clean hotel that's located near the highway in an area where we felt safe. Tons of nearby restaurants, with IHOP and Hooter's within walking distance (and this area had a police presence). The hotel was very clean and the associates provided top notch customer service to us during our stay. I'd highly recommend!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r474077981-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -240,9 +327,6 @@
     <t xml:space="preserve">This hotel is an great area, IHOP and Hooters right in front, walking distance.  There is other restaurant and shopping areas about 2 miles or less. The room is very nice bed and bathroom good size. The staff is great they remembered me which is nice last name and all good feeling. The gym is basic but good enough to go get a work out in. </t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r471247751-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -291,6 +375,57 @@
     <t>Decided to stay here while we were having work done on our house.  We were not disappointed!  The hotel is pretty new, a little over a year old, and it is spotless.  The front desk staff were very friendly.  Requested a top floor with 2 queen beds and the room was very clean, bed was comfortable.  Bathroom was very clean.  Did not hear any noise and slept great.  Breakfast bar was so-so but no big breakfast eaters in our family.  They did have gluten free bagels which is nice because we have someone in our family who is celiac.  I have never seen that before at a hotel.  Would recommend this hotel for anyone!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r461806746-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>461806746</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>New and lacking services- Unlike others we have stayed.</t>
+  </si>
+  <si>
+    <t>A new facility which was clean, well decorated and the rooms were large and comfortable. It lacked the certain services we have been accustomed to at Fairfield. The internet service was very slow, and some cases not accessible. The guide provided with the TV was not for the service provided at the hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>A new facility which was clean, well decorated and the rooms were large and comfortable. It lacked the certain services we have been accustomed to at Fairfield. The internet service was very slow, and some cases not accessible. The guide provided with the TV was not for the service provided at the hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r434543408-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>434543408</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel</t>
+  </si>
+  <si>
+    <t>As the title states, this hotel is newer and very clean.  The room was quiet, the beds were comfortable, and the TV was a good size for the room.  Check in was easy and the front desk person was friendly.Now for the negative.  The breakfast was terrible.  The "eggs" were cold both mornings of my stay (they don't use real eggs), the bacon was so thin and chewy it was more like a deli meat, the sausage was cold and rubbery.  Come on Marriott, you can do better!On the second night of our stay, my son was running a fever.  The "market place" did not have ANY pain reliever.  No aspirin, no Tylenol, no ibufrofren. Nothing.  I also noticed they did not have many snacks or beverages either.  What is going on?  EVERY Marriott I have ever stayed in has a fully stocked market place.  I have stayed in over 200 different Marriotts and this is the first one that did not have a stocked market place.  You can do better than this!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Regina P, Director of Sales at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>As the title states, this hotel is newer and very clean.  The room was quiet, the beds were comfortable, and the TV was a good size for the room.  Check in was easy and the front desk person was friendly.Now for the negative.  The breakfast was terrible.  The "eggs" were cold both mornings of my stay (they don't use real eggs), the bacon was so thin and chewy it was more like a deli meat, the sausage was cold and rubbery.  Come on Marriott, you can do better!On the second night of our stay, my son was running a fever.  The "market place" did not have ANY pain reliever.  No aspirin, no Tylenol, no ibufrofren. Nothing.  I also noticed they did not have many snacks or beverages either.  What is going on?  EVERY Marriott I have ever stayed in has a fully stocked market place.  I have stayed in over 200 different Marriotts and this is the first one that did not have a stocked market place.  You can do better than this!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r433057842-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -306,9 +441,6 @@
     <t>I checked into my room after 11:30pm at night after driving all night I was exhausted. I came into the hotel to find alot of sports guys hanging out in lobby...and all I could think was oh great. Ema checked me and was so nice...she quietly showed me which room I was assigned to ( I am a young female) and even recommend where I park my car since I was concerned...it's a govt car. She than made sure I made it to my room safely ( I was on first floor around corner from check in). I felt safe and secure. The room was amazingly quiet and nice. The bed was perfect and the bathroom was spacious and beautiful. Breakfast was sorta disappointing...wasn't much to choose from. I have a food allergy to eggs and the tongs for sausage had been used to get eggs so I couldn't get any meat for my breakfast. It's just basic options so not really complaining. The fresh fruit was truly fresh and not all brown and old so I happily to that to go.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>I checked into my room after 11:30pm at night after driving all night I was exhausted. I came into the hotel to find alot of sports guys hanging out in lobby...and all I could think was oh great. Ema checked me and was so nice...she quietly showed me which room I was assigned to ( I am a young female) and even recommend where I park my car since I was concerned...it's a govt car. She than made sure I made it to my room safely ( I was on first floor around corner from check in). I felt safe and secure. The room was amazingly quiet and nice. The bed was perfect and the bathroom was spacious and beautiful. Breakfast was sorta disappointing...wasn't much to choose from. I have a food allergy to eggs and the tongs for sausage had been used to get eggs so I couldn't get any meat for my breakfast. It's just basic options so not really complaining. The fresh fruit was truly fresh and not all brown and old so I happily to that to go.More</t>
   </si>
   <si>
@@ -348,9 +480,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded July 11, 2016</t>
   </si>
   <si>
@@ -360,6 +489,51 @@
     <t>The clerk was very helpful in finding a great restaurant.  The hotel was very nice, new, and clean.  I would recommend this hotel, partly because most of Houston smells like they are out gassing petroleum refinery gasses.  This hotel was far enough from a refinery that it did not smell like so much of Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r380834419-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>380834419</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>New and Nice Fairfield</t>
+  </si>
+  <si>
+    <t>It's been a few years since I've stayed in a Fairfield Inn.  I usually stay at full service Marriott's with an occasional Courtyard or Residence Inn.  Fairfield's are limited service and are generally regarded as a tier below the Courtyard's.  I mention this because I was astonished how nice this Fairfield was.  This is probably barely a 6 month old Fairfield and I thought was nice as any of the newer Courtyard's built in the last 2-3 years..  And nicer than any of the older Courtyards (remodeled or not).  Same Paul Mitchell toiletries as in Courtyards even.Room-wise, I stayed in a King Suite and there was plenty of room with 2 TV's and a long couch.  The bed was pretty comfortable and the bath towels soft.  Shower was hot and had good water pressure and the bathroom was fairly good sized.  A comfortable room overall.Location wise, this is in a pretty convenient location of Pasadena right off the Beltway 8.  Lots of casual restaurants nearby and there's an IHOP and Hooters in the same parking lot.  Pretty close to parts of southeast Houston, Deer Park, and 225 and 45.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's been a few years since I've stayed in a Fairfield Inn.  I usually stay at full service Marriott's with an occasional Courtyard or Residence Inn.  Fairfield's are limited service and are generally regarded as a tier below the Courtyard's.  I mention this because I was astonished how nice this Fairfield was.  This is probably barely a 6 month old Fairfield and I thought was nice as any of the newer Courtyard's built in the last 2-3 years..  And nicer than any of the older Courtyards (remodeled or not).  Same Paul Mitchell toiletries as in Courtyards even.Room-wise, I stayed in a King Suite and there was plenty of room with 2 TV's and a long couch.  The bed was pretty comfortable and the bath towels soft.  Shower was hot and had good water pressure and the bathroom was fairly good sized.  A comfortable room overall.Location wise, this is in a pretty convenient location of Pasadena right off the Beltway 8.  Lots of casual restaurants nearby and there's an IHOP and Hooters in the same parking lot.  Pretty close to parts of southeast Houston, Deer Park, and 225 and 45.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r379396046-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>379396046</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>They gave our room away and lied about vancancies</t>
+  </si>
+  <si>
+    <t>We booked and paid for a room (booked directly with Marriott), but when we arrived (8pm) to check in, our room had been given away. As a family of 4, we needed 2 beds. They only offered us a room with a single bed and that wouldn't work for 4 people. After asking the employee 5+ times "are you positive you don't have ANY rooms left with 2 beds" the employee called someone. Amazingly, after this phone call, suddenly there wasn't just one room (with double beds) open, but a hole hallway. The employee explained to us that they save a entire hallway of rooms for high-point level Marriott reward members who might stop in and need a room. I was so thankful to at least have a place for our family to sleep the night before an early morning flight, but felt the need to share my experience at this hotel. I contacted Marriott regarding the situation and they just passed an email to the hotel's general manager. The general manager sent me a canned 3 sentence email back and told me she'd be happy to make a reservation when we were ready to stay there again. Seriously?MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded June 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2016</t>
+  </si>
+  <si>
+    <t>We booked and paid for a room (booked directly with Marriott), but when we arrived (8pm) to check in, our room had been given away. As a family of 4, we needed 2 beds. They only offered us a room with a single bed and that wouldn't work for 4 people. After asking the employee 5+ times "are you positive you don't have ANY rooms left with 2 beds" the employee called someone. Amazingly, after this phone call, suddenly there wasn't just one room (with double beds) open, but a hole hallway. The employee explained to us that they save a entire hallway of rooms for high-point level Marriott reward members who might stop in and need a room. I was so thankful to at least have a place for our family to sleep the night before an early morning flight, but felt the need to share my experience at this hotel. I contacted Marriott regarding the situation and they just passed an email to the hotel's general manager. The general manager sent me a canned 3 sentence email back and told me she'd be happy to make a reservation when we were ready to stay there again. Seriously?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r379197473-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -436,6 +610,51 @@
   </si>
   <si>
     <t>Overall good place for a quiet night. The staff were generally friendly and hotel was clean and modern. About 20-25 minutes from Bayport Cruise Terminal. Things to consider: The pool is very small as was the gym. Breakfast was very minimal and no milk alternatives. Hotel try's to seem environmentally friendly but provides styrofoam plates for breakfast. Address is 3636 E Sam Houston Parkway S, Pasadena TX. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r355594796-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>355594796</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Brand New Luxury!!</t>
+  </si>
+  <si>
+    <t>Chose this hotel for an overnight stay prior to 7 day cruise out of Galveston. Excellent Hotel/Excellent choice, close to shopping areas and eating establishments. Great staff. Delicious and filling breakfast items. Easy on/off to major highways. Will book again for future stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn A, General Manager at Fairfield Inn &amp; Suites Houston Pasadena, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Chose this hotel for an overnight stay prior to 7 day cruise out of Galveston. Excellent Hotel/Excellent choice, close to shopping areas and eating establishments. Great staff. Delicious and filling breakfast items. Easy on/off to major highways. Will book again for future stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d9724045-r340932750-Fairfield_Inn_Suites_Houston_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>340932750</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>brand new hotel, nice design</t>
+  </si>
+  <si>
+    <t>This hotel opened 1/1/2016 and I stayed here 2 weeks after opening.  The hotel is going to enjoy that new feeling for a while with a nice, modern layout in the lobby as well as a nice design for the rooms.  Mine had a stand up shower that was large, and my friend said his had a tub and shower curtain.  My room didn't have a closet, only a peg to hang clothes.  It's new so they are working out a few minor kinks, such as labels still on the exterior windows and my room had a missing coffee carafe, but I wouldn't ding them for it.  The breakfast was pretty good too, scrambled eggs, bacon, sausages, pastries, juices, coffee, yogurt... all free.  I'd recommend this hotel if the location suits you.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>This hotel opened 1/1/2016 and I stayed here 2 weeks after opening.  The hotel is going to enjoy that new feeling for a while with a nice, modern layout in the lobby as well as a nice design for the rooms.  Mine had a stand up shower that was large, and my friend said his had a tub and shower curtain.  My room didn't have a closet, only a peg to hang clothes.  It's new so they are working out a few minor kinks, such as labels still on the exterior windows and my room had a missing coffee carafe, but I wouldn't ding them for it.  The breakfast was pretty good too, scrambled eggs, bacon, sausages, pastries, juices, coffee, yogurt... all free.  I'd recommend this hotel if the location suits you.More</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1206,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1006,7 +1229,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1015,25 +1238,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1044,10 +1267,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1290,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1072,38 +1299,32 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1126,7 +1347,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1135,25 +1356,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1167,7 +1388,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1183,7 +1404,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1192,25 +1413,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1222,17 +1443,13 @@
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
         <v>83</v>
       </c>
@@ -1271,23 +1488,25 @@
         <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1295,7 +1514,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1311,7 +1530,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1320,25 +1539,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1352,7 +1571,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1392,23 +1611,17 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1431,7 +1644,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1440,47 +1653,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
         <v>105</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>108</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>109</v>
-      </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
         <v>111</v>
-      </c>
-      <c r="X10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11">
@@ -1496,7 +1711,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1505,49 +1720,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
         <v>115</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>116</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>117</v>
       </c>
-      <c r="L11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
       <c r="O11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1563,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1572,49 +1781,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -1630,7 +1829,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1639,43 +1838,687 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>137</v>
       </c>
-      <c r="X13" t="s">
+      <c r="J14" t="s">
         <v>138</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="K14" t="s">
         <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>154</v>
+      </c>
+      <c r="X17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>186</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>195</v>
+      </c>
+      <c r="X21" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64699</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
